--- a/docs/Extension-CareConnect-AllergySeverity-1.xlsx
+++ b/docs/Extension-CareConnect-AllergySeverity-1.xlsx
@@ -219,7 +219,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-AllergySeverity-1</t>
+    <t>https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-AllergySeverity-1</t>
   </si>
   <si>
     <t>N/A</t>
@@ -257,7 +257,7 @@
     <t>A code from the SNOMED Clinical Terminology UK coding system that describes the severity of an allergy.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-AllergySeverity-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-AllergySeverity-1</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.1875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.01953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.85546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
